--- a/Monstar/excel/string.xlsx
+++ b/Monstar/excel/string.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YoshikiMiyamoto/eclipse-workspace/Monstar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YoshikiMiyamoto/Documents/github/createstringxml/Monstar/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540"/>
   </bookViews>
   <sheets>
-    <sheet name="sheeeeet1" sheetId="1" r:id="rId1"/>
-    <sheet name="サンプル" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="list" sheetId="3" r:id="rId1"/>
+    <sheet name="sheeeeet1" sheetId="1" r:id="rId2"/>
+    <sheet name="サンプル" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,53 +29,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>saf</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>daf</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>oi</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>R</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>こんにちは</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おやすみ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おはよう</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>さようなら</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Good Night</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bye</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Morning</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -412,97 +396,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>654</v>
-      </c>
-      <c r="B1" s="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>457</v>
-      </c>
-      <c r="B4" s="2">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5785</v>
-      </c>
-      <c r="D4" s="2">
-        <v>78</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>68765</v>
-      </c>
-      <c r="B5" s="2">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2">
-        <v>57685</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1232</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45467</v>
-      </c>
-      <c r="B6" s="2">
-        <v>978</v>
-      </c>
-      <c r="C6" s="2">
-        <v>789</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -512,9 +491,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -532,138 +582,4 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Monstar/excel/string.xlsx
+++ b/Monstar/excel/string.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>こんにちは</t>
     <phoneticPr fontId="3"/>
@@ -60,6 +60,49 @@
   </si>
   <si>
     <t>Morning</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>In Japanese</t>
+  </si>
+  <si>
+    <t>In English</t>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>goodnight</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>morning</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bye</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>watch</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時計</t>
+    <rPh sb="0" eb="2">
+      <t>トケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Watch</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -396,91 +439,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
   </sheetData>
